--- a/test/out.xlsx
+++ b/test/out.xlsx
@@ -1,15 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Desktop\auta\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE27091B-5900-4A4A-B490-720A89B4A5A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="37680" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Počty průjezdů" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -91,7 +108,7 @@
     <t>Poměr</t>
   </si>
   <si>
-    <t>Počet SPZ</t>
+    <t xml:space="preserve">Celkový počet unikátních SPZ </t>
   </si>
   <si>
     <t>unknown</t>
@@ -106,11 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00%"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,13 +148,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -170,7 +197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,7 +205,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -213,9 +249,11 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD8E4BC"/>
+        </patternFill>
+      </fill>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -257,11 +295,9 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+      </font>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -281,6 +317,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -327,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,9 +403,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,6 +455,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,60 +648,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
     <col min="2" max="19" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="1"/>
-      <c r="P1" s="2" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -667,11 +749,11 @@
       <c r="O2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -718,19 +800,18 @@
         <v>3778</v>
       </c>
       <c r="P3" s="2">
-        <f>SUM(B3:O3) * A3</f>
-        <v>0</v>
+        <f t="shared" ref="P3:P15" si="0">SUM(B3:O3) * A3</f>
+        <v>60624</v>
       </c>
       <c r="Q3" s="3">
-        <f>P3/$P$18</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <f>P3 / A3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <f t="shared" ref="Q3:Q16" si="1">P3/$P$18</f>
+        <v>0.82520928333219901</v>
+      </c>
+      <c r="R3" s="4">
+        <v>32761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -777,19 +858,15 @@
         <v>283</v>
       </c>
       <c r="P4" s="2">
-        <f>SUM(B4:O4) * A4</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8112</v>
       </c>
       <c r="Q4" s="3">
-        <f>P4/$P$18</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <f>P4 / A4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <f t="shared" si="1"/>
+        <v>0.11041992785680256</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -836,19 +913,15 @@
         <v>30</v>
       </c>
       <c r="P5" s="2">
-        <f>SUM(B5:O5) * A5</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1446</v>
       </c>
       <c r="Q5" s="3">
-        <f>P5/$P$18</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <f>P5 / A5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <f t="shared" si="1"/>
+        <v>1.9682842169740693E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -895,19 +968,15 @@
         <v>10</v>
       </c>
       <c r="P6" s="2">
-        <f>SUM(B6:O6) * A6</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>492</v>
       </c>
       <c r="Q6" s="3">
-        <f>P6/$P$18</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <f>P6 / A6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <f t="shared" si="1"/>
+        <v>6.6970666303682027E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -954,19 +1023,15 @@
         <v>3</v>
       </c>
       <c r="P7" s="2">
-        <f>SUM(B7:O7) * A7</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>155</v>
       </c>
       <c r="Q7" s="3">
-        <f>P7/$P$18</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <f>P7 / A7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <f t="shared" si="1"/>
+        <v>2.1098482270468931E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1013,19 +1078,15 @@
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f>SUM(B8:O8) * A8</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>84</v>
       </c>
       <c r="Q8" s="3">
-        <f>P8/$P$18</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="2">
-        <f>P8 / A8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <f t="shared" si="1"/>
+        <v>1.1434016198189614E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1072,19 +1133,15 @@
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <f>SUM(B9:O9) * A9</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>42</v>
       </c>
       <c r="Q9" s="3">
-        <f>P9/$P$18</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="2">
-        <f>P9 / A9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <f t="shared" si="1"/>
+        <v>5.717008099094807E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1131,19 +1188,15 @@
         <v>1</v>
       </c>
       <c r="P10" s="2">
-        <f>SUM(B10:O10) * A10</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="Q10" s="3">
-        <f>P10/$P$18</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <f>P10 / A10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <f t="shared" si="1"/>
+        <v>8.7116313890968486E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1190,19 +1243,15 @@
         <v>0</v>
       </c>
       <c r="P11" s="2">
-        <f>SUM(B11:O11) * A11</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="Q11" s="3">
-        <f>P11/$P$18</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <f>P11 / A11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <f t="shared" si="1"/>
+        <v>2.4501463281834888E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1249,19 +1298,15 @@
         <v>0</v>
       </c>
       <c r="P12" s="2">
-        <f>SUM(B12:O12) * A12</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
       <c r="Q12" s="3">
-        <f>P12/$P$18</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <f>P12 / A12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <f t="shared" si="1"/>
+        <v>2.7223848090927654E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1308,19 +1353,15 @@
         <v>0</v>
       </c>
       <c r="P13" s="2">
-        <f>SUM(B13:O13) * A13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="Q13" s="3">
-        <f>P13/$P$18</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <f>P13 / A13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <f t="shared" si="1"/>
+        <v>1.6334308854556591E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1367,19 +1408,15 @@
         <v>0</v>
       </c>
       <c r="P14" s="2">
-        <f>SUM(B14:O14) * A14</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="Q14" s="3">
-        <f>P14/$P$18</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <f>P14 / A14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <f t="shared" si="1"/>
+        <v>1.7695501259102974E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>16</v>
       </c>
@@ -1426,19 +1463,15 @@
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <f>SUM(B15:O15) * A15</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
       <c r="Q15" s="3">
-        <f>P15/$P$18</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="2">
-        <f>P15 / A15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <f t="shared" si="1"/>
+        <v>4.3558156945484243E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -1486,91 +1519,83 @@
       </c>
       <c r="P16" s="2">
         <f>SUM(B16:O16) * 1</f>
-        <v>0</v>
+        <v>2351</v>
       </c>
       <c r="Q16" s="3">
-        <f>P16/$P$18</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="2">
-        <f>P16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <f t="shared" si="1"/>
+        <v>3.2001633430885454E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B18" s="2">
         <f>SUMPRODUCT(B3:B15,A3:A15) + B16</f>
-        <v>0</v>
+        <v>2668</v>
       </c>
       <c r="C18" s="2">
         <f>SUMPRODUCT(C3:C15,A3:A15) + C16</f>
-        <v>0</v>
+        <v>2868</v>
       </c>
       <c r="D18" s="2">
         <f>SUMPRODUCT(D3:D15,A3:A15) + D16</f>
-        <v>0</v>
+        <v>8149</v>
       </c>
       <c r="E18" s="2">
         <f>SUMPRODUCT(E3:E15,A3:A15) + E16</f>
-        <v>0</v>
+        <v>7390</v>
       </c>
       <c r="F18" s="2">
         <f>SUMPRODUCT(F3:F15,A3:A15) + F16</f>
-        <v>0</v>
+        <v>4311</v>
       </c>
       <c r="G18" s="2">
         <f>SUMPRODUCT(G3:G15,A3:A15) + G16</f>
-        <v>0</v>
+        <v>4173</v>
       </c>
       <c r="H18" s="2">
         <f>SUMPRODUCT(H3:H15,A3:A15) + H16</f>
-        <v>0</v>
+        <v>3463</v>
       </c>
       <c r="I18" s="2">
         <f>SUMPRODUCT(I3:I15,A3:A15) + I16</f>
-        <v>0</v>
+        <v>3680</v>
       </c>
       <c r="J18" s="2">
         <f>SUMPRODUCT(J3:J15,A3:A15) + J16</f>
-        <v>0</v>
+        <v>8815</v>
       </c>
       <c r="K18" s="2">
         <f>SUMPRODUCT(K3:K15,A3:A15) + K16</f>
-        <v>0</v>
+        <v>7922</v>
       </c>
       <c r="L18" s="2">
         <f>SUMPRODUCT(L3:L15,A3:A15) + L16</f>
-        <v>0</v>
+        <v>4164</v>
       </c>
       <c r="M18" s="2">
         <f>SUMPRODUCT(M3:M15,A3:A15) + M16</f>
-        <v>0</v>
+        <v>5790</v>
       </c>
       <c r="N18" s="2">
         <f>SUMPRODUCT(N3:N15,A3:A15) + N16</f>
-        <v>0</v>
+        <v>5355</v>
       </c>
       <c r="O18" s="2">
         <f>SUMPRODUCT(O3:O15,A3:A15) + O16</f>
-        <v>0</v>
+        <v>4717</v>
       </c>
       <c r="P18" s="2">
         <f>SUM(P3:P16)</f>
-        <v>0</v>
+        <v>73465</v>
       </c>
       <c r="Q18" s="3">
         <f>SUM(Q3:Q16)</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="2">
-        <f>SUM(R3:R16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>27</v>
       </c>
@@ -1617,82 +1642,82 @@
         <v>4717</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="2">
-        <f>B18 - B20</f>
+        <f t="shared" ref="B21:O21" si="2">B18 - B20</f>
         <v>0</v>
       </c>
       <c r="C21" s="2">
-        <f>C18 - C20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D21" s="2">
-        <f>D18 - D20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <f>E18 - E20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F21" s="2">
-        <f>F18 - F20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <f>G18 - G20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H21" s="2">
-        <f>H18 - H20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="2">
-        <f>I18 - I20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <f>J18 - J20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="2">
-        <f>K18 - K20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21" s="2">
-        <f>L18 - L20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M21" s="2">
-        <f>M18 - M20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <f>N18 - N20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <f>O18 - O20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
   </mergeCells>
   <conditionalFormatting sqref="B20:O20">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1700,7 +1725,7 @@
     <cfRule type="cellIs" dxfId="2" priority="3" operator="notEqual">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
